--- a/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det2_det3  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det2_det3  - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44.62300474557222</v>
+        <v>40.35273080373261</v>
       </c>
       <c r="D2" t="n">
         <v>0.0007432820064133916</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05929019675229672</v>
+        <v>0.05768901818751787</v>
       </c>
       <c r="F2" t="n">
-        <v>39.53104947970746</v>
+        <v>39.7519845137213</v>
       </c>
       <c r="G2" t="n">
-        <v>39.16453478943461</v>
+        <v>39.17885991166446</v>
       </c>
       <c r="H2" t="n">
-        <v>39.89666747590925</v>
+        <v>40.33773556790973</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007744383483966349</v>
+        <v>0.0008155990910973818</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0006740010690734459</v>
+        <v>0.0007160354820433255</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0009715830583053849</v>
+        <v>0.001006965825962904</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05239916656260388</v>
+        <v>0.05773987243909963</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05180361268185064</v>
+        <v>0.05732369019961255</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05308343945701306</v>
+        <v>0.0581650361216453</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,77 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04608098243534236</v>
+        <v>0.102597563863823</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04137345730255693</v>
+        <v>0.01127190191069068</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05353211092952772</v>
+        <v>0.2184275124632387</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0423389094586633</v>
+        <v>0.09367986748464503</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0399678271038279</v>
+        <v>0.01026609838128846</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04532098688547147</v>
+        <v>0.1995491589942272</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04351288560457103</v>
+        <v>0.1098090001372114</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04152273410073074</v>
+        <v>0.01210427335757139</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04568634055330067</v>
+        <v>0.2336030159744603</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40.35273080373261</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0007432820064133916</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.05768901818751787</v>
+      </c>
+      <c r="F4" t="n">
+        <v>39.85458207758511</v>
+      </c>
+      <c r="G4" t="n">
+        <v>39.19013181357516</v>
+      </c>
+      <c r="H4" t="n">
+        <v>40.55616308037295</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.09449546657574241</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.01098213386333178</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2005561248201901</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.167548872576311</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.06942796355718395</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2917680520961056</v>
       </c>
     </row>
   </sheetData>

--- a/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det2_det3  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det2_det3  - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.05768901818751787</v>
       </c>
       <c r="F2" t="n">
-        <v>39.7519845137213</v>
+        <v>39.74438209094902</v>
       </c>
       <c r="G2" t="n">
-        <v>39.17885991166446</v>
+        <v>39.16766964703901</v>
       </c>
       <c r="H2" t="n">
-        <v>40.33773556790973</v>
+        <v>40.33093387611461</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0008155990910973818</v>
+        <v>0.0008158385462390095</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0007160354820433255</v>
+        <v>0.0007158974101504378</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001006965825962904</v>
+        <v>0.00100787144948165</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05773987243909963</v>
+        <v>0.05773612402604088</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05732369019961255</v>
+        <v>0.05732099823481117</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0581650361216453</v>
+        <v>0.05816259425868024</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.102597563863823</v>
+        <v>0.1036405735052982</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01127190191069068</v>
+        <v>0.01148215839517404</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2184275124632387</v>
+        <v>0.2187040735126491</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09367986748464503</v>
+        <v>0.09462803158651995</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01026609838128846</v>
+        <v>0.01045793013741791</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1995491589942272</v>
+        <v>0.1997858451436656</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1098090001372114</v>
+        <v>0.1109312794322102</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01210427335757139</v>
+        <v>0.01232957853827658</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2336030159744603</v>
+        <v>0.2339212518584734</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.05768901818751787</v>
       </c>
       <c r="F4" t="n">
-        <v>39.85458207758511</v>
+        <v>39.84802266445432</v>
       </c>
       <c r="G4" t="n">
-        <v>39.19013181357516</v>
+        <v>39.17915180543418</v>
       </c>
       <c r="H4" t="n">
-        <v>40.55616308037295</v>
+        <v>40.54963794962726</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09449546657574241</v>
+        <v>0.09544387013275896</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01098213386333178</v>
+        <v>0.01117382754756835</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2005561248201901</v>
+        <v>0.2007937165931473</v>
       </c>
       <c r="L4" t="n">
-        <v>0.167548872576311</v>
+        <v>0.1686674034582511</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06942796355718395</v>
+        <v>0.06965057677308775</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2917680520961056</v>
+        <v>0.2920838461171536</v>
       </c>
     </row>
   </sheetData>
